--- a/detection_log.xlsx
+++ b/detection_log.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1208,14 +1208,32 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>detection_2025-12-04_23-27-05.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2026-01-04 19:34:49</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>detection_2025-12-04_23-27-05.jpg</t>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>detection_2026-01-04_19-34-49.jpg</t>
         </is>
       </c>
     </row>
